--- a/src/experiment/results/wilcoxon/colon/noise/L2SVM_auc_folds.xlsx
+++ b/src/experiment/results/wilcoxon/colon/noise/L2SVM_auc_folds.xlsx
@@ -485,10 +485,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.425</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="3">
@@ -511,10 +511,10 @@
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="4">
@@ -537,10 +537,10 @@
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6875</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="5">
@@ -563,10 +563,10 @@
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="6">
@@ -589,10 +589,10 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8125</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>0.125</v>
       </c>
     </row>
   </sheetData>

--- a/src/experiment/results/wilcoxon/colon/noise/L2SVM_auc_folds.xlsx
+++ b/src/experiment/results/wilcoxon/colon/noise/L2SVM_auc_folds.xlsx
@@ -485,10 +485,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6071428571428571</v>
+        <v>0.775</v>
       </c>
       <c r="F2" t="n">
-        <v>0.125</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -511,10 +511,10 @@
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7</v>
+        <v>0.675</v>
       </c>
       <c r="F3" t="n">
-        <v>0.125</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -537,10 +537,10 @@
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.8125</v>
       </c>
       <c r="F4" t="n">
-        <v>0.125</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -563,10 +563,10 @@
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>0.625</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="F5" t="n">
-        <v>0.125</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -589,10 +589,10 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.625</v>
       </c>
       <c r="F6" t="n">
-        <v>0.125</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
